--- a/outcome/appendix/data/0_impact/Acute hemorrhagic conjunctivitis.xlsx
+++ b/outcome/appendix/data/0_impact/Acute hemorrhagic conjunctivitis.xlsx
@@ -409,7 +409,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2853.39536181751</v>
+        <v>2853.39558316514</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -427,7 +427,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>2828.38612911018</v>
+        <v>2828.38664842481</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
@@ -445,7 +445,7 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>2830.16572880151</v>
+        <v>2830.16565908946</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -463,7 +463,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>2837.07994854121</v>
+        <v>2837.0797147855</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -481,7 +481,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>2844.85768995495</v>
+        <v>2844.85739750718</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -499,7 +499,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>2852.49028117917</v>
+        <v>2852.48996652738</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
@@ -517,7 +517,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>2858.7974204433</v>
+        <v>2858.79709896188</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -535,7 +535,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>2848.97056272369</v>
+        <v>2848.97025434874</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
@@ -553,7 +553,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>2840.28936846023</v>
+        <v>2840.28910079719</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
@@ -571,7 +571,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>2835.28184753427</v>
+        <v>2835.28162580138</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -589,7 +589,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>2835.21512996561</v>
+        <v>2835.21490612866</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -607,7 +607,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>2833.32329456403</v>
+        <v>2833.3230968055</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -625,7 +625,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2830.90709111154</v>
+        <v>2830.90693945858</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
@@ -643,7 +643,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2830.34807021806</v>
+        <v>2830.34793248447</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
@@ -661,7 +661,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>2830.30356758502</v>
+        <v>2830.30342415478</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
@@ -679,7 +679,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>2830.37627422868</v>
+        <v>2830.37612652247</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
@@ -697,7 +697,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>2830.47238944715</v>
+        <v>2830.47223866374</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
@@ -715,7 +715,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>2830.56971985565</v>
+        <v>2830.56956661174</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
@@ -733,7 +733,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>2830.65231485468</v>
+        <v>2830.65215974044</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
@@ -751,7 +751,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>2830.55058478577</v>
+        <v>2830.55043206102</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
@@ -769,7 +769,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>2830.44089645473</v>
+        <v>2830.44074659094</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
@@ -787,7 +787,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>2830.37184129402</v>
+        <v>2830.37169349438</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
@@ -805,7 +805,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>2830.36313212766</v>
+        <v>2830.36298452997</v>
       </c>
       <c r="C24"/>
       <c r="D24"/>
@@ -823,7 +823,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>2830.3408286275</v>
+        <v>2830.34068182256</v>
       </c>
       <c r="C25"/>
       <c r="D25"/>
@@ -841,7 +841,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2830.3110700306</v>
+        <v>2830.31092444053</v>
       </c>
       <c r="C26"/>
       <c r="D26"/>
@@ -859,7 +859,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2830.30134974934</v>
+        <v>2830.30120458572</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -877,7 +877,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>2830.29972788495</v>
+        <v>2830.29958271367</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -895,7 +895,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>2830.30035851438</v>
+        <v>2830.30021327491</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
@@ -913,7 +913,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>2830.30151229955</v>
+        <v>2830.3013669934</v>
       </c>
       <c r="C30"/>
       <c r="D30"/>
@@ -931,7 +931,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>2830.30274013085</v>
+        <v>2830.30259476503</v>
       </c>
       <c r="C31"/>
       <c r="D31"/>
@@ -949,7 +949,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>2830.30381078623</v>
+        <v>2830.30366537197</v>
       </c>
       <c r="C32"/>
       <c r="D32"/>
@@ -967,7 +967,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>2830.302790051</v>
+        <v>2830.30264468438</v>
       </c>
       <c r="C33"/>
       <c r="D33"/>
@@ -985,7 +985,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>2830.30143858627</v>
+        <v>2830.30129328485</v>
       </c>
       <c r="C34"/>
       <c r="D34"/>
@@ -1003,7 +1003,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>2830.30050600514</v>
+        <v>2830.30036075148</v>
       </c>
       <c r="C35"/>
       <c r="D35"/>
@@ -1021,7 +1021,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>2830.30030046875</v>
+        <v>2830.30015522469</v>
       </c>
       <c r="C36"/>
       <c r="D36"/>
@@ -1039,7 +1039,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>2830.30002590949</v>
+        <v>2830.29988068104</v>
       </c>
       <c r="C37"/>
       <c r="D37"/>
@@ -1057,7 +1057,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>2830.2996595422</v>
+        <v>2830.29951433669</v>
       </c>
       <c r="C38"/>
       <c r="D38"/>
@@ -1075,7 +1075,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>2830.29950795409</v>
+        <v>2830.29936275833</v>
       </c>
       <c r="C39"/>
       <c r="D39"/>
